--- a/biology/Botanique/Stipe_chevelue/Stipe_chevelue.xlsx
+++ b/biology/Botanique/Stipe_chevelue/Stipe_chevelue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hesperostipa comata, de nom commun stipe comateuse[1], est une espèce d'herbe nord-américaine de la famille des Poaceae et du genre Hesperostipa.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesperostipa comata, de nom commun stipe comateuse, est une espèce d'herbe nord-américaine de la famille des Poaceae et du genre Hesperostipa.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hesperostipa comata est une graminée vivace produisant des tiges dressées et non ramifiées d'une hauteur maximale d'environ 1 m. L'inflorescence étroite mesure jusqu'à 28 cm de long chez les plantes plus hautes, l'épillet mature portant une arête en forme de lance en spirale, poilue, atteignant 19 cm de longueur.
 Les graines de cette herbe ont des extensions hygroscopiques qui se plient avec les changements d'humidité, leur permettant de se disperser sur le sol. Chaque graine a une arête qui se tord de plusieurs tours lorsque la graine est libérée. Une humidité accrue le fait se détordre et, après séchage, se tord à nouveau, ainsi la graine est plantée dans le sol.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La stipe comateuse a une large distribution allant du nord du Canada au Mexique.
 </t>
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est une herbe de nombreux types d'habitats, des prairies aux forêts de pins. Hesperostipa comata pousse souvent avec Achnatherum thurberianum (en), Aletes humilis (en), Asclepias uncialis, Astragalus mulfordiae (en), Carex inops.
 Les jeunes pousses constituent une source de nourriture privilégiée pour les chiens de prairie à queue noire et les lièvres de Californie, et l'herbe est un bon pâturage au début du printemps pour le bétail avant de développer sa longue arête acérée.
@@ -608,10 +626,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est décrite lors de l'expédition Lewis et Clark.
-La stipe comateuse est un symbole du Saskatchewan, elle est choisie puisqu’elle est l’herbe dominante de cette écorégion composée de prairies mixtes[2].
+La stipe comateuse est un symbole du Saskatchewan, elle est choisie puisqu’elle est l’herbe dominante de cette écorégion composée de prairies mixtes.
 Cette espèce est populaire parmi les enfants en raison de la capacité de la graine à être jetée et à coller aux vêtements.
 </t>
         </is>
